--- a/data/trans_dic/P04D$individual-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$individual-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.3039887461682591</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1722058331895225</v>
+        <v>0.1722058331895226</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2660505580325657</v>
+        <v>0.2652055297538524</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.242694670335803</v>
+        <v>0.2446056173524513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1163006986600235</v>
+        <v>0.117568642957872</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2425818286885029</v>
+        <v>0.2393317913658178</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2830503926311836</v>
+        <v>0.2814700202274055</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1251639337400298</v>
+        <v>0.1164737399556035</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2620302430392583</v>
+        <v>0.2639122188573618</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2701684597902995</v>
+        <v>0.2730763088855315</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1308248707065704</v>
+        <v>0.1314662216617253</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3581078144177325</v>
+        <v>0.3507783422036507</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3312184849362554</v>
+        <v>0.3345198441146822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2525311576945465</v>
+        <v>0.2481993786662103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3260966854834715</v>
+        <v>0.3249737488758327</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3728207356990603</v>
+        <v>0.3763256480483705</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2401617915728392</v>
+        <v>0.2333408574110493</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3257439813666334</v>
+        <v>0.3266525101508136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3368720584327575</v>
+        <v>0.3378202182051567</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2179690017842487</v>
+        <v>0.2199867465595599</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2516180169636802</v>
+        <v>0.2517389008994109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2585613132687405</v>
+        <v>0.2571676327323458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1254944915923246</v>
+        <v>0.1205606070535348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2666856657638268</v>
+        <v>0.2663513456143414</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2768653457757809</v>
+        <v>0.2803427372123311</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1333162580986959</v>
+        <v>0.1411260604669663</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2706168199602996</v>
+        <v>0.2666609523568793</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2761164575265263</v>
+        <v>0.27805257465198</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1424001667818122</v>
+        <v>0.1407264728152871</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3191903870715177</v>
+        <v>0.3211617308138418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3357847603401055</v>
+        <v>0.3334327589389984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2174672512333346</v>
+        <v>0.2148752164114915</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3401066145087743</v>
+        <v>0.340506278167688</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.354785689573773</v>
+        <v>0.3563348714251939</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2064302493148509</v>
+        <v>0.2091713311500416</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3201043233430896</v>
+        <v>0.3191150803768878</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3303292336685797</v>
+        <v>0.3311538598257424</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2024494428032184</v>
+        <v>0.1986736229538051</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2746460654311224</v>
+        <v>0.2752546384864654</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2674397266039915</v>
+        <v>0.2694246467811601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1339786345911351</v>
+        <v>0.1356044061563055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2850960929740312</v>
+        <v>0.2919986960355956</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3092892382805095</v>
+        <v>0.3050051585996188</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1624149429853501</v>
+        <v>0.1623433674267334</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2914880809292558</v>
+        <v>0.2906586115205206</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2970524776783163</v>
+        <v>0.2982745333112545</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1572858988322109</v>
+        <v>0.1574245233730778</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3455319314259125</v>
+        <v>0.3438367662263613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3386234882825686</v>
+        <v>0.3419523924585921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2013280121637776</v>
+        <v>0.2029240502490311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3631068708167829</v>
+        <v>0.3635515803660759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3805057886095151</v>
+        <v>0.3773132187204667</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2181927807355274</v>
+        <v>0.2171076097325632</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3432224779977231</v>
+        <v>0.3426991082875018</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3489080840044024</v>
+        <v>0.3473358847487003</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1995322175777562</v>
+        <v>0.2006351541879034</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.2962136753422173</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.1975980080084968</v>
+        <v>0.1975980080084967</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2685364538967756</v>
+        <v>0.2699963052428905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2543763010249582</v>
+        <v>0.2538013705998755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1778428426038164</v>
+        <v>0.1788314578547247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2492469054126112</v>
+        <v>0.244308454363477</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2704672986843024</v>
+        <v>0.2684057496546486</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1665434867668086</v>
+        <v>0.1673896093884829</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2734074718030853</v>
+        <v>0.2703085580476697</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2718475796351567</v>
+        <v>0.2712908728855653</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1778720444161587</v>
+        <v>0.1794787501258649</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3499157465736114</v>
+        <v>0.3506967478633049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3274064626979906</v>
+        <v>0.3286240023486516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2425371447058622</v>
+        <v>0.2393442491362668</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3238113320077329</v>
+        <v>0.3201256692470966</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3410823054460647</v>
+        <v>0.3404708215236631</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.210586061589863</v>
+        <v>0.214855527950049</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3273298293814265</v>
+        <v>0.3258233044737265</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.326385875734936</v>
+        <v>0.3240316355251773</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2169787312187784</v>
+        <v>0.2187142268950823</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2620264052660604</v>
+        <v>0.2654953568774923</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2572223967216869</v>
+        <v>0.2570100783002501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1528522768916287</v>
+        <v>0.1525376708877237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2395034569366498</v>
+        <v>0.238371749179996</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2723410239469714</v>
+        <v>0.2804186559819173</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1255761622374478</v>
+        <v>0.1239921727155353</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2648613068304471</v>
+        <v>0.2655246490440922</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2823491492946101</v>
+        <v>0.2786340878889165</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1442078234478956</v>
+        <v>0.1460842651970957</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3564199848396272</v>
+        <v>0.3573412816097464</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3443572934807828</v>
+        <v>0.3466256017492407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2155284743770433</v>
+        <v>0.2104598399053601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3286846975405515</v>
+        <v>0.3246721435874614</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3650751998634954</v>
+        <v>0.3692211564713592</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1688562421514687</v>
+        <v>0.1682742927170188</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3297913731058454</v>
+        <v>0.3262656505152043</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3413988551179942</v>
+        <v>0.3447568391614933</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1829390608089878</v>
+        <v>0.1828232005363101</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2354725981404127</v>
+        <v>0.2328789596923212</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.220605709984635</v>
+        <v>0.2183416477655496</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1534899327858492</v>
+        <v>0.1533326854654415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2377493480126546</v>
+        <v>0.2372089899144738</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2306187900115088</v>
+        <v>0.2304866132541739</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.134673842728389</v>
+        <v>0.1341880489375388</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2519338981306131</v>
+        <v>0.2509471835129362</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2401361877554754</v>
+        <v>0.2374142226376644</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1520431049845986</v>
+        <v>0.1520935980222774</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3449960810050253</v>
+        <v>0.3456949636448836</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3161291567128278</v>
+        <v>0.3160723049702829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2207806774347799</v>
+        <v>0.2168626274536915</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3363502774176451</v>
+        <v>0.3383538131483794</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3231168316269236</v>
+        <v>0.3253691877122986</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1841444820960575</v>
+        <v>0.184463869631463</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3281149341691001</v>
+        <v>0.3230147554906597</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3086272837507326</v>
+        <v>0.3071395785258675</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1937476659191191</v>
+        <v>0.1918963309550623</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.2056166717768016</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1429388343870395</v>
+        <v>0.1429388343870396</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.1708611151090556</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1809403184521542</v>
+        <v>0.1827205689401926</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1622837117052014</v>
+        <v>0.1654537170091163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1098716484815284</v>
+        <v>0.1127964095118351</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.133864436487568</v>
+        <v>0.1322401767334826</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2075737722175142</v>
+        <v>0.2107834808100483</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1057196264762263</v>
+        <v>0.1053871641019068</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1649047721613942</v>
+        <v>0.1644383118486733</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2044429799678781</v>
+        <v>0.205870895861284</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1159521890015748</v>
+        <v>0.1173620202224244</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3007689080035191</v>
+        <v>0.3010604978781206</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.254617968235519</v>
+        <v>0.2575894736831049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1756141490148137</v>
+        <v>0.1787173141672164</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2129979390725219</v>
+        <v>0.2161824654043729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3085554768313216</v>
+        <v>0.3117046504272951</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1529186414545253</v>
+        <v>0.1518857990983029</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2307450623823059</v>
+        <v>0.2308384172178983</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2755865708168861</v>
+        <v>0.2789827131290058</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1548499883744379</v>
+        <v>0.1547871274923852</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2823524192327619</v>
+        <v>0.2808621320412155</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2708054049382126</v>
+        <v>0.2702270509958374</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1636197280196531</v>
+        <v>0.1640358007449525</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2675607382729964</v>
+        <v>0.267565226392894</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2933972863561582</v>
+        <v>0.2914078286244895</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1554664413896637</v>
+        <v>0.1554331194457271</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2794285575917974</v>
+        <v>0.2780028037711394</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.286728431189394</v>
+        <v>0.2864005948393025</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1634675967132323</v>
+        <v>0.1629943084006734</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.314546405534818</v>
+        <v>0.3133464263353175</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3012445716317744</v>
+        <v>0.3026697184635918</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.193827420088655</v>
+        <v>0.1945736950907113</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2991234341391248</v>
+        <v>0.2990286090334428</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3248115886970461</v>
+        <v>0.3243941583316483</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1780722872836013</v>
+        <v>0.1774817292735832</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3010572024126567</v>
+        <v>0.3013168379080539</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3091607415808596</v>
+        <v>0.3094146639365757</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1825422725923883</v>
+        <v>0.1816304926372919</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>120335</v>
+        <v>119952</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>101801</v>
+        <v>102603</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47046</v>
+        <v>47559</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>103889</v>
+        <v>102497</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>112019</v>
+        <v>111393</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>45373</v>
+        <v>42223</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>230735</v>
+        <v>232392</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>220246</v>
+        <v>222617</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>100347</v>
+        <v>100839</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>161972</v>
+        <v>158657</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>138934</v>
+        <v>140319</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>102154</v>
+        <v>100402</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>139656</v>
+        <v>139175</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>147546</v>
+        <v>148933</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>87062</v>
+        <v>84589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>286839</v>
+        <v>287639</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>274624</v>
+        <v>275397</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>167190</v>
+        <v>168737</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>172883</v>
+        <v>172967</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>152679</v>
+        <v>151856</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59847</v>
+        <v>57494</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>162746</v>
+        <v>162542</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>156026</v>
+        <v>157985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>66645</v>
+        <v>70549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>351083</v>
+        <v>345950</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>318649</v>
+        <v>320884</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>139095</v>
+        <v>137460</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>219312</v>
+        <v>220666</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>198280</v>
+        <v>196891</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103708</v>
+        <v>102472</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>207552</v>
+        <v>207796</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>199937</v>
+        <v>200810</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>103194</v>
+        <v>104565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>415285</v>
+        <v>414001</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>381213</v>
+        <v>382165</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>197751</v>
+        <v>194062</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>187011</v>
+        <v>187425</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>178943</v>
+        <v>180271</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82560</v>
+        <v>83562</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>202340</v>
+        <v>207239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>204560</v>
+        <v>201726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>100937</v>
+        <v>100893</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>405355</v>
+        <v>404201</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>395223</v>
+        <v>396849</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>194672</v>
+        <v>194844</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>235278</v>
+        <v>234124</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>226572</v>
+        <v>228799</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>124062</v>
+        <v>125046</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>257706</v>
+        <v>258022</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>251661</v>
+        <v>249550</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>135602</v>
+        <v>134928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>477299</v>
+        <v>476571</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>464216</v>
+        <v>462124</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>246961</v>
+        <v>248326</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>164151</v>
+        <v>165044</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>164339</v>
+        <v>163968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>124600</v>
+        <v>125292</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>153307</v>
+        <v>150270</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>175554</v>
+        <v>174216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>122376</v>
+        <v>122998</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>335297</v>
+        <v>331496</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>352077</v>
+        <v>351356</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>255321</v>
+        <v>257627</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>213897</v>
+        <v>214374</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>211520</v>
+        <v>212307</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>169926</v>
+        <v>167689</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>199171</v>
+        <v>196904</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>221389</v>
+        <v>220992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>154739</v>
+        <v>157876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>401425</v>
+        <v>399578</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>422711</v>
+        <v>419661</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>311455</v>
+        <v>313946</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>112522</v>
+        <v>114011</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>122931</v>
+        <v>122830</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>92831</v>
+        <v>92639</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>107250</v>
+        <v>106743</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>135312</v>
+        <v>139326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>76204</v>
+        <v>75242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>232344</v>
+        <v>232926</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>275225</v>
+        <v>271603</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>175091</v>
+        <v>177369</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>153057</v>
+        <v>153453</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>164575</v>
+        <v>165659</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>130895</v>
+        <v>127817</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>147185</v>
+        <v>145388</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>181387</v>
+        <v>183447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>102467</v>
+        <v>102114</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>289303</v>
+        <v>286210</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>332784</v>
+        <v>336058</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>222116</v>
+        <v>221976</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>72946</v>
+        <v>72143</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>73755</v>
+        <v>72998</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>62349</v>
+        <v>62286</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>84162</v>
+        <v>83971</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>87119</v>
+        <v>87069</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>58980</v>
+        <v>58767</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>167229</v>
+        <v>166574</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>170999</v>
+        <v>169061</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>128348</v>
+        <v>128391</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>106875</v>
+        <v>107091</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>105691</v>
+        <v>105672</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>89684</v>
+        <v>88092</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>119067</v>
+        <v>119776</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>122061</v>
+        <v>122912</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>80645</v>
+        <v>80785</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>217797</v>
+        <v>214411</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>219771</v>
+        <v>218712</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>163553</v>
+        <v>161990</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>45033</v>
+        <v>45476</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>41707</v>
+        <v>42521</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>34082</v>
+        <v>34989</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>52070</v>
+        <v>51439</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>83065</v>
+        <v>84349</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>49073</v>
+        <v>48918</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>105187</v>
+        <v>104889</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>134353</v>
+        <v>135292</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>89790</v>
+        <v>90882</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>74857</v>
+        <v>74929</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65436</v>
+        <v>66200</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>54475</v>
+        <v>55438</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>82852</v>
+        <v>84090</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>123474</v>
+        <v>124735</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>70981</v>
+        <v>70502</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>147184</v>
+        <v>147244</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>181106</v>
+        <v>183338</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>119912</v>
+        <v>119863</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>965556</v>
+        <v>960460</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>919208</v>
+        <v>917245</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>576266</v>
+        <v>577731</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>950938</v>
+        <v>950954</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1039959</v>
+        <v>1032907</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>579523</v>
+        <v>579399</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1948675</v>
+        <v>1938732</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1989578</v>
+        <v>1987303</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1185079</v>
+        <v>1181647</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1075649</v>
+        <v>1071546</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1022530</v>
+        <v>1027367</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>682656</v>
+        <v>685285</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1063115</v>
+        <v>1062778</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1151308</v>
+        <v>1149829</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>663790</v>
+        <v>661589</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2099509</v>
+        <v>2101319</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2145233</v>
+        <v>2146995</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1323363</v>
+        <v>1316753</v>
       </c>
     </row>
     <row r="36">
